--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2023/56_Manisa_2023.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2023/56_Manisa_2023.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk 2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{667601D4-9DE4-40D6-BFC1-C50C0FBDBD60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{88CA5635-F802-4E59-B214-C90F12A6E90E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="650" xr2:uid="{9E5EDB63-BD34-4E95-A0B0-C6BA181B7FA9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="650" xr2:uid="{FFD8E81E-0103-45F9-A485-EBFC1F7E668A}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="124" r:id="rId1"/>
@@ -933,13 +933,13 @@
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{33421C5F-E6C5-4C03-8815-3A9257769686}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{7E8B9AB8-9AD2-4220-A70D-EB9B87DFA667}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{148DF3EE-55D1-46F0-9CA4-CA99F8FE0690}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{9E150251-74A3-4FF2-87AC-25678A36841B}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{F5EC6E63-829D-4C0C-ACE8-E22E29B078D2}"/>
-    <cellStyle name="Not 2" xfId="6" xr:uid="{1C5AE92D-466F-4E29-B257-C004F6589EAE}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{0AFC005A-1F46-4A45-B422-45A89D73B2EE}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{C3F6087D-43EB-49B0-A627-CE095080AC0D}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{6D11A03B-D13E-4DA9-BD9C-4F8ADD26BD97}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{8E2C4374-9FD5-487D-9AD1-B7AC7851C664}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{FE143A29-1830-4082-933D-DF1792D32FDF}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{0ED5697D-C493-468B-BB14-9BF1056C17DA}"/>
+    <cellStyle name="Not 2" xfId="6" xr:uid="{0CC8A2BF-F8BB-4B05-ACEE-5F871A71C4D4}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{55219BFD-B2F2-4E00-8C47-9164A896EA05}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1309,7 +1309,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07EB42FC-F42A-42FB-A7D0-7E7D143E13A1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3D8F2C7-987C-448C-9286-00CEBE42B0AF}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2615,7 +2615,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834A7CEC-1B46-45B7-8AD3-ADBAECDF5C33}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FF46212-D3EF-4DEF-B4BE-3EC04D5D7A2E}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -3886,7 +3886,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE6547CF-8657-426C-B613-674A3211CD97}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BB9A37B-58C2-42D5-83BA-C1CB3BC2EF83}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -5157,7 +5157,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49F116A6-D082-41CC-BF3C-D5BEE92B9B66}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3664F6EA-6EB0-45BD-ACB6-A2A1762AC725}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -6420,7 +6420,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1602D2C2-2485-40B2-B503-FF6142CB129E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{698424BB-DC02-4E8A-AAEF-E6EFF154B1D4}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -7727,7 +7727,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D2118CA-763D-4361-90B2-6EB4B17EF56E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00B6DAA2-6E65-42D2-B373-1F8AD47DE3F3}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -9034,7 +9034,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD27D680-5E83-4172-8036-09B0AF1E87C6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEB98836-10E8-4A69-8AED-170BAFBEAAFE}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -10341,7 +10341,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8B7C1B2-98E0-4D6D-BEDD-DC3B30EFDFD5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBD29FCA-B3BE-4906-923F-FF643B44EC5A}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -11648,7 +11648,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36FF39E4-C5F2-4B82-AE6A-F45A78BD4BCE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44F9D649-32CA-4FE9-A4CA-5492953AC58B}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -12955,7 +12955,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{701A6654-9098-4C01-8A6A-D0515D4105A3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B19BCB5B-B579-42FF-B4F3-1E88366AA726}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -14250,7 +14250,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7C225BA-6789-4FE3-AC0A-A7B344A29C14}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B3E7025-34F5-48D3-BB59-1594E71F560A}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -15545,7 +15545,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12F44688-74E8-4F49-B468-7362D62EA83B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19E79CD3-65ED-4DD2-AFD9-14D84705BCBC}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
